--- a/data/income_statement/2digits/size/03_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/03_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>03-Fishing and aquaculture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>03-Fishing and aquaculture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,530 +841,600 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>197567.01004</v>
+        <v>188803.5541</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>273054.47978</v>
+        <v>311219.67775</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>352476.56616</v>
+        <v>413818.97387</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>401814.20525</v>
+        <v>426582.51593</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>413466.39038</v>
+        <v>474662.9058300001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>470458.19186</v>
+        <v>548981.99095</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>451300.01886</v>
+        <v>485743.22078</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>438464.88857</v>
+        <v>481688.19832</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>554851.8719400001</v>
+        <v>614826.18752</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>602348.2281900001</v>
+        <v>772549.20306</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1002988.97931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>849056.3513300001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1361124.35</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>164016.25371</v>
+        <v>153979.8044</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>232463.61018</v>
+        <v>265018.9319</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>303737.59247</v>
+        <v>360576.92919</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>341589.30347</v>
+        <v>367679.6034199999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>353214.17803</v>
+        <v>410579.53055</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>390073.10668</v>
+        <v>468546.3846</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>386422.24432</v>
+        <v>419807.77655</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>379742.42182</v>
+        <v>426156.33728</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>437906.60693</v>
+        <v>464598.0145399999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>492532.76522</v>
+        <v>645040.9031999999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>850470.15441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>705968.99726</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1220088.936</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18097.79784</v>
+        <v>18031.36122</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>27186.26707</v>
+        <v>27208.82767</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24349.38935</v>
+        <v>28474.66539</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>40389.79309000001</v>
+        <v>40473.45459</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>42410.54923</v>
+        <v>44590.18831000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>69628.36512999999</v>
+        <v>67168.81440999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>58243.06288</v>
+        <v>59447.98420000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>50009.64908</v>
+        <v>47545.92053</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>109452.87372</v>
+        <v>142846.25291</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>106441.60142</v>
+        <v>119453.70968</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>140756.72508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>132885.39998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>117698.239</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>15452.95849</v>
+        <v>16792.38848</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13404.60253</v>
+        <v>18991.91818</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>24389.58434</v>
+        <v>24767.37929</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19835.10869</v>
+        <v>18429.45792</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17841.66312</v>
+        <v>19493.18697</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>10756.72005</v>
+        <v>13266.79194</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6634.71166</v>
+        <v>6487.46003</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>8712.81767</v>
+        <v>7985.940509999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>7492.39129</v>
+        <v>7381.92007</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3373.86155</v>
+        <v>8054.59018</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>11762.09982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10201.95409</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23337.175</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1726.89784</v>
+        <v>2863.43998</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2925.94215</v>
+        <v>4559.56141</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1584.64609</v>
+        <v>2244.85989</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3873.3891</v>
+        <v>3673.74848</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2211.58005</v>
+        <v>2142.63999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4345.13422</v>
+        <v>6750.50796</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3245.83668</v>
+        <v>3609.1948</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5927.665849999999</v>
+        <v>5697.389810000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>18727.55167</v>
+        <v>18911.29326</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5790.38019</v>
+        <v>14223.90348</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>17274.88054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13498.01706</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>18975.663</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>461.67855</v>
+        <v>433.9895500000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>710.48439</v>
+        <v>715.3115600000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1073.70244</v>
+        <v>293.94808</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2700.58046</v>
+        <v>2482.08703</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1595.95007</v>
+        <v>1085.56744</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3450.54405</v>
+        <v>4953.71122</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2340.56082</v>
+        <v>2373.24553</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2476.39214</v>
+        <v>2208.09036</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>18382.08106</v>
+        <v>18555.44911</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1678.75171</v>
+        <v>9758.132009999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>14960.22133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11195.80856</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10589.284</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>173.57237</v>
+        <v>1337.80351</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2018.07359</v>
+        <v>3760.998610000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>503.29321</v>
+        <v>1690.12331</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>169.78361</v>
+        <v>176.5604</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>89.78922999999999</v>
+        <v>319.34483</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>180.712</v>
+        <v>947.8013799999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>603.54788</v>
+        <v>934.2212900000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1884.50841</v>
+        <v>1934.86989</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>59.30951</v>
+        <v>69.68305000000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3321.53752</v>
+        <v>3458.06948</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1230.60023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1218.14952</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7616.859</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1091.64692</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>197.38417</v>
+        <v>83.25124000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7.65044</v>
+        <v>260.7885</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1003.02503</v>
+        <v>1015.10105</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>525.84075</v>
+        <v>737.72772</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>713.8781700000001</v>
+        <v>848.99536</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>301.72798</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1566.7653</v>
+        <v>1554.42956</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>286.1611</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>790.09096</v>
+        <v>1007.70199</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>1084.05898</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>769.52</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>195840.1122</v>
+        <v>185940.11412</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>270128.53763</v>
+        <v>306660.11634</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>350891.92007</v>
+        <v>411574.11398</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>397940.81615</v>
+        <v>422908.76745</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>411254.8103300001</v>
+        <v>472520.26584</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>466113.05764</v>
+        <v>542231.48299</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>448054.18218</v>
+        <v>482134.02598</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>432537.22272</v>
+        <v>475990.80851</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>536124.32027</v>
+        <v>595914.89426</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>596557.848</v>
+        <v>758325.29958</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>985714.0987699999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>835558.33427</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1342148.687</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>167788.91012</v>
+        <v>157558.61549</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>237122.72127</v>
+        <v>270913.41401</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>292568.88692</v>
+        <v>336133.76637</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>334924.45242</v>
+        <v>356942.88194</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>364712.59913</v>
+        <v>423222.28003</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>401711.24772</v>
+        <v>470983.8999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>385974.0504</v>
+        <v>415871.86951</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>381697.10635</v>
+        <v>412007.27014</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>467485.98043</v>
+        <v>513119.56607</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>511233.5505900001</v>
+        <v>655744.30768</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>888000.7455600001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>760212.2785599999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1180385.748</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>131531.40511</v>
+        <v>125886.26672</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>160121.25545</v>
+        <v>191998.99251</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>198330.57809</v>
+        <v>239278.07136</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>202127.47224</v>
+        <v>218998.09484</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>232287.71049</v>
+        <v>292004.24635</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>277222.35584</v>
+        <v>353456.93199</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>282008.1009</v>
+        <v>316303.12526</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>239152.67409</v>
+        <v>274528.0145</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>262828.37382</v>
+        <v>314638.38306</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>459980.71343</v>
+        <v>615415.8303500001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>769902.37725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>689989.98158</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1006782.647</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>35484.12991</v>
+        <v>31386.61551</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>74558.11639</v>
+        <v>77917.05369</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>89941.40106</v>
+        <v>96323.71199000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>131161.26953</v>
+        <v>137327.10155</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>130215.57189</v>
+        <v>128776.27684</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>120964.93891</v>
+        <v>115658.88737</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>100241.91719</v>
+        <v>97413.68335000001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>135067.2807</v>
+        <v>132511.18191</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>194967.91238</v>
+        <v>190420.88285</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>43795.22011</v>
+        <v>31132.29635</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>94055.15814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>56521.15598</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>147928.695</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>122.71822</v>
+        <v>59.98655</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1985.37181</v>
+        <v>539.39019</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2037.12029</v>
+        <v>245.74897</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1221.4315</v>
+        <v>203.4064</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1169.33966</v>
+        <v>1401.77975</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3292.02417</v>
+        <v>1856.46804</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3557.81448</v>
+        <v>1988.84307</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4426.33675</v>
+        <v>1698.09207</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5875.37481</v>
+        <v>6276.20138</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7452.10858</v>
+        <v>9190.67251</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>23956.7704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13701.141</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16854.711</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>650.65688</v>
+        <v>225.74671</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>457.97762</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2259.78748</v>
+        <v>286.23405</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>414.27915</v>
@@ -1472,106 +1443,121 @@
         <v>1039.97709</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>231.9288</v>
+        <v>11.6125</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>166.21783</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3050.81481</v>
+        <v>3269.98166</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3814.31942</v>
+        <v>1784.09878</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>5.50847</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>86.43977000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8819.695</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>28051.20208</v>
+        <v>28381.49863</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>33005.81636</v>
+        <v>35746.70233</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>58323.03315</v>
+        <v>75440.34761</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>63016.36373</v>
+        <v>65965.88551000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>46542.2112</v>
+        <v>49297.98581000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>64401.80992</v>
+        <v>71247.58309</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>62080.13178</v>
+        <v>66262.15647</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>50840.11637</v>
+        <v>63983.53836999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>68638.33984</v>
+        <v>82795.32819</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>85324.29741</v>
+        <v>102580.9919</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>97713.35320999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>75346.05571000002</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>161762.939</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>15877.88044</v>
+        <v>14161.97667</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>17325.38078</v>
+        <v>19185.80394</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>21377.49286</v>
+        <v>25028.4014</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>29318.11475</v>
+        <v>29241.07075</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>23082.32936</v>
+        <v>27859.72847</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>27312.71873</v>
+        <v>29492.49424</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>28137.24353</v>
+        <v>27651.40219</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>28316.77377</v>
+        <v>28569.70943</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>47146.06354</v>
+        <v>43027.70783</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>40898.2755</v>
+        <v>44914.07204</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>66909.31686000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>50640.97033</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>78015.82799999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>35.04458</v>
@@ -1580,13 +1566,13 @@
         <v>31.05834</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>0</v>
+        <v>26.40014</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>0</v>
+        <v>15.32233</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>0</v>
+        <v>47.22241</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>44.19636</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6378.33759</v>
+        <v>5934.6362</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6592.16507</v>
+        <v>7618.369120000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5696.26896</v>
+        <v>8842.094989999998</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8646.700929999999</v>
+        <v>11496.32262</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10443.89198</v>
+        <v>14795.39812</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13528.97581</v>
+        <v>16608.25053</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>13244.97128</v>
+        <v>14765.72719</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11565.06047</v>
+        <v>13155.66533</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19733.95624</v>
+        <v>19876.13239</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>17723.19724</v>
+        <v>17730.37252</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>18148.67768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>12063.05423</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>24994.019</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>9464.49827</v>
+        <v>8192.295890000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>10702.15737</v>
+        <v>11536.37648</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>15681.2239</v>
+        <v>16159.90627</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>20671.41382</v>
+        <v>17729.4258</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>12638.43738</v>
+        <v>13017.10794</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>13783.74292</v>
+        <v>12884.24371</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>14892.27225</v>
+        <v>12885.675</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>16751.7133</v>
+        <v>15414.0441</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>27360.43785</v>
+        <v>23099.90599</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>22395.18326</v>
+        <v>26403.80452</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>48716.44282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>38533.71974</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>53021.809</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>12173.32164</v>
+        <v>14219.52196</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>15680.43558</v>
+        <v>16560.89839</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>36945.54029</v>
+        <v>50411.94621</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>33698.24898</v>
+        <v>36724.81476000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>23459.88184</v>
+        <v>21438.25734</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>37089.09119</v>
+        <v>41755.08885</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>33942.88825</v>
+        <v>38610.75428</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>22523.3426</v>
+        <v>35413.82894</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>21492.2763</v>
+        <v>39767.62036</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>44426.02191</v>
+        <v>57666.91986</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>30804.03635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24705.08538</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>83747.111</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11435.38903</v>
+        <v>9956.602010000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8696.760780000001</v>
+        <v>14139.3934</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9159.100050000001</v>
+        <v>16463.67559</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9699.469139999999</v>
+        <v>14921.40281</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>15004.59078</v>
+        <v>21218.14162</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>11994.04308</v>
+        <v>19600.99475</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>29026.13941</v>
+        <v>16596.20188</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>20648.08746</v>
+        <v>17003.19096</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>31158.18764</v>
+        <v>49642.76612000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>88474.92844</v>
+        <v>183510.61883</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>75406.49868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>69246.7732</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>131897.314</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1790,22 +1801,27 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17.47548</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>26.50761</v>
+        <v>5895.3016</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1826,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10835.3517</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5727.4213</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>534.21316</v>
+        <v>529.25219</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1037.16399</v>
+        <v>1047.67024</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1213.48505</v>
+        <v>1173.28152</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1406.65694</v>
+        <v>4720.59727</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2088.26195</v>
+        <v>463.85339</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1655.71903</v>
+        <v>1432.57158</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4048.36344</v>
+        <v>3978.55348</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>491.40214</v>
+        <v>1753.81648</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>623.1264699999999</v>
+        <v>3012.52865</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7460.46965</v>
+        <v>8047.00684</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3066.95089</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2550.54159</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>821.724</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>72.03400000000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>69.49153</v>
+        <v>75.11552999999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>100</v>
@@ -1910,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>56.07</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29.81099</v>
@@ -1931,52 +1962,57 @@
         <v>231.3293</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>69.58499999999999</v>
+        <v>3574.00626</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0.0005</v>
+        <v>47.95125</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>57.95125</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>470.24235</v>
+        <v>84.65325</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>686.75225</v>
+        <v>29.17758</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>934.3795</v>
+        <v>50.13728</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1148.13488</v>
+        <v>220.56675</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>90.64518</v>
+        <v>37.117</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>105.11423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>58.5</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2362.973</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1.2713</v>
+        <v>0.9753099999999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>4.422209999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.07465999999999999</v>
+        <v>6.73397</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0</v>
+        <v>0.34657</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>407.89711</v>
+        <v>501.85007</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>0.01878</v>
@@ -1985,61 +2021,71 @@
         <v>1.10234</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>189.26266</v>
+        <v>0.9331900000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>137.89555</v>
+        <v>2.85923</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18.06624</v>
+        <v>0.48077</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2.73755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1.10534</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>8451.538289999999</v>
+        <v>7668.52916</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5381.7047</v>
+        <v>10514.12769</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4300.913030000001</v>
+        <v>9017.4357</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4686.349099999999</v>
+        <v>7334.17447</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8115.850770000001</v>
+        <v>16127.60913</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5384.342439999999</v>
+        <v>12802.54147</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>10631.49972</v>
+        <v>8876.645500000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9376.62386</v>
+        <v>11583.6544</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>13810.86903</v>
+        <v>27623.66443</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>77863.64953</v>
+        <v>162857.2213</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>57030.27774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>52523.0035</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>91372.609</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2346.52129</v>
+        <v>1656.00036</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1972.64905</v>
+        <v>2266.72843</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3475.04231</v>
+        <v>2592.21814</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3313.01376</v>
+        <v>2524.88441</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4254.1197</v>
+        <v>3986.36778</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4483.720480000001</v>
+        <v>5281.20967</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2601.82994</v>
+        <v>3489.48296</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3911.52252</v>
+        <v>3614.64961</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>15418.16171</v>
+        <v>18783.14706</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3015.59023</v>
+        <v>6673.49132</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15201.41827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>14113.62277</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>37283.938</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14855.73876</v>
+        <v>14835.49596</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7746.55834</v>
+        <v>11311.40106</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>12551.7235</v>
+        <v>26765.03576</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>11070.40111</v>
+        <v>13083.81377</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>18266.17832</v>
+        <v>35449.25079</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>17318.69762</v>
+        <v>28252.35029</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>19501.67517</v>
+        <v>21003.67127</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10104.10394</v>
+        <v>17099.56578</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>21814.67698</v>
+        <v>45939.92191999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>125020.0319</v>
+        <v>185962.76564</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>77816.42981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>73564.14924</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>109914.889</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3.06144</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8.40109</v>
+        <v>152.18248</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>10.0167</v>
+        <v>12.97403</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>0</v>
+        <v>90.87903999999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0</v>
+        <v>456.07914</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>2.005</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6.95277</v>
+        <v>5.29987</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>30.4235</v>
+        <v>29.84625</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>54.67075</v>
+        <v>43.41431</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>10.31333</v>
+        <v>177.36058</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9.75827</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8.505000000000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>28.538</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4469.122109999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1213.88638</v>
+        <v>996.40716</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1038.26629</v>
+        <v>763.1697800000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5839.74097</v>
+        <v>5658.1674</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>248</v>
+        <v>343.48663</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3798.88875</v>
+        <v>3483.1363</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1469.3079</v>
+        <v>1305.98908</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1373.99414</v>
+        <v>1546.8217</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>336.41127</v>
+        <v>376.60517</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1114.85751</v>
+        <v>5508.902150000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4525.803110000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4495.275390000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1116.63</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0</v>
@@ -2300,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>8.06864</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8662.36701</v>
+        <v>8671.030510000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5862.867619999999</v>
+        <v>9342.51325</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9531.820689999999</v>
+        <v>24968.2236</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>4178.33104</v>
+        <v>5839.06691</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15621.83556</v>
+        <v>32891.26483</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9844.341249999999</v>
+        <v>21626.02071</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14335.54051</v>
+        <v>16179.02151</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7229.901470000001</v>
+        <v>11994.47924</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>19797.98574</v>
+        <v>34347.50311999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>118237.59615</v>
+        <v>173621.49081</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>63712.10769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>60014.49904000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>89934.33900000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2372,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>14.91487</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>12.15194</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1721.1882</v>
+        <v>1692.2819</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>661.40325</v>
+        <v>820.2981699999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>854.98982</v>
+        <v>1020.66835</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>892.2909299999999</v>
+        <v>1335.66225</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2250.42108</v>
+        <v>1612.49851</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3384.41478</v>
+        <v>2852.14044</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3674.95912</v>
+        <v>3513.36081</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1469.78483</v>
+        <v>3528.41859</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1604.7058</v>
+        <v>11171.71648</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5657.264909999999</v>
+        <v>6655.0121</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9568.76074</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9045.86981</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19952.012</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>11392.77588</v>
+        <v>9565.728650000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8078.44557</v>
+        <v>8251.316350000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8835.78808</v>
+        <v>10851.58617</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12010.82804</v>
+        <v>12609.17996</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10431.31353</v>
+        <v>14783.83548</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11468.75138</v>
+        <v>19215.76596</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>11357.73668</v>
+        <v>10933.89283</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9516.48099</v>
+        <v>9327.73977</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>16534.88795</v>
+        <v>19213.17756</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>18386.62715</v>
+        <v>80781.42307999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>41344.52424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>40182.08852</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>49951.599</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>10769.3505</v>
+        <v>8942.30327</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7830.01453</v>
+        <v>8002.885310000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>8116.7926</v>
+        <v>9949.919609999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11933.02864</v>
+        <v>12531.38056</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10169.16365</v>
+        <v>14371.46398</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11043.15564</v>
+        <v>18761.40049</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10795.88703</v>
+        <v>10372.04318</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8941.208629999999</v>
+        <v>8752.467409999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>16036.33731</v>
+        <v>18763.47104</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>18386.62715</v>
+        <v>57015.30235</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>40709.52424</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>39547.08852</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>49497.734</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>623.42538</v>
@@ -2555,16 +2666,16 @@
         <v>248.43104</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>718.9954799999999</v>
+        <v>901.66656</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>77.79939999999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>262.14988</v>
+        <v>412.3715</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>425.59574</v>
+        <v>454.36547</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>561.84965</v>
@@ -2573,115 +2684,130 @@
         <v>575.2723599999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>498.55064</v>
+        <v>449.70652</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>0</v>
+        <v>23766.12073</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>635</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>453.865</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-2639.80397</v>
+        <v>-225.1006399999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8552.192449999999</v>
+        <v>11137.57438</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>24717.12876</v>
+        <v>29258.99987</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>20316.48897</v>
+        <v>25953.22384</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>9766.98077</v>
+        <v>-7576.68731</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>20295.68527</v>
+        <v>13887.96735</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>32109.61581</v>
+        <v>23269.39206</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>23550.84513</v>
+        <v>25989.71435</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>14300.89901</v>
+        <v>24257.287</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-10505.7087</v>
+        <v>-25566.65003</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-12950.41902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-19794.37918</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>55777.937</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5050.4635</v>
+        <v>4989.76671</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2731.53463</v>
+        <v>2860.65446</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5395.25892</v>
+        <v>5886.22975</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6354.23572</v>
+        <v>6149.38046</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2363.27156</v>
+        <v>2867.43629</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6563.338860000001</v>
+        <v>3150.21974</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3275.34998</v>
+        <v>3024.89084</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3564.22932</v>
+        <v>2904.0433</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>8500.392949999999</v>
+        <v>7810.26377</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11785.39146</v>
+        <v>12011.7518</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23371.42125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>22577.84055</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>20705.296</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>19.88765</v>
+        <v>20.7057</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0.02451</v>
+        <v>258.99023</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2941.30144</v>
+        <v>2947.53844</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5.12974</v>
+        <v>12.16474</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3323.38158</v>
+        <v>37.50344</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>0.00029</v>
@@ -2690,112 +2816,127 @@
         <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0</v>
+        <v>17.78123</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>34.08888</v>
+        <v>0</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5030.575849999999</v>
+        <v>4969.061009999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2731.53463</v>
+        <v>2860.61446</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5395.23441</v>
+        <v>5627.239519999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3412.93428</v>
+        <v>3201.84202</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2358.14182</v>
+        <v>2855.27155</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3239.95728</v>
+        <v>3112.716300000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3275.34969</v>
+        <v>3024.89055</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3564.22932</v>
+        <v>2904.0433</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>8500.392949999999</v>
+        <v>7792.48254</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11751.30258</v>
+        <v>12011.7518</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>23371.42125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>22577.84055</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>20705.296</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3651.45782</v>
+        <v>3639.4532</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>440.31408</v>
+        <v>598.28713</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7477.58752</v>
+        <v>11136.92213</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>762.8074399999999</v>
+        <v>1249.6033</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2521.26261</v>
+        <v>1628.28721</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2759.81426</v>
+        <v>2904.92044</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3243.05836</v>
+        <v>3308.5477</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7528.92157</v>
+        <v>7408.362450000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>10551.76214</v>
+        <v>11188.25908</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>16596.25602</v>
+        <v>19357.43784</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>12360.45628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11686.9997</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>10543.541</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>215.05407</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2.80575</v>
+        <v>35.46145</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>39.8861</v>
+        <v>3.91322</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>40.33027000000001</v>
+        <v>3.21311</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2.07266</v>
+        <v>35.95274</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>37.65337</v>
@@ -2810,208 +2951,236 @@
         <v>1.1712</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>0</v>
+        <v>65.7807</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>61.91183</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>122.061</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>17.86534</v>
+        <v>18.26585</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>34.4357</v>
+        <v>57.54306</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>30.67075</v>
+        <v>454.62033</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>37.10203</v>
+        <v>116.16455</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>762.7065200000001</v>
+        <v>54.81771</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>10.96726</v>
+        <v>22.21074</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>68.26499000000001</v>
+        <v>50.50481</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>68.03331</v>
+        <v>26.8618</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.2457</v>
+        <v>7.72322</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>13.29721</v>
+        <v>4.13</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>64.21702999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>51.91863</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3.386</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3418.53841</v>
+        <v>3406.13328</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>403.07263</v>
+        <v>505.28262</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>7407.03067</v>
+        <v>10678.38858</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>685.37514</v>
+        <v>1130.22564</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1756.48343</v>
+        <v>1537.51676</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2711.19363</v>
+        <v>2845.05633</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3174.79319</v>
+        <v>3258.04271</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7460.88826</v>
+        <v>7381.50065</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10550.34524</v>
+        <v>11179.36466</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>16582.95881</v>
+        <v>19287.52714</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>12234.32742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11573.16924</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>10418.094</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1240.79829</v>
+        <v>1125.21287</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10843.413</v>
+        <v>13399.94171</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>22634.80016</v>
+        <v>24008.30749</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>25907.91725</v>
+        <v>30853.001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9608.98972</v>
+        <v>-6337.53823</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>24099.20987</v>
+        <v>14133.26665</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>32141.90743</v>
+        <v>22985.7352</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>19586.15288</v>
+        <v>21485.3952</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>12249.52982</v>
+        <v>20879.29169</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-15316.57326</v>
+        <v>-32912.33607</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1939.454049999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-8903.538330000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>65939.692</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>685.1866200000001</v>
+        <v>872.6266699999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2043.64326</v>
+        <v>2042.61858</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5102.3201</v>
+        <v>6188.11166</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4655.24389</v>
+        <v>6100.151440000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2793.12336</v>
+        <v>2422.370190000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4599.34306</v>
+        <v>3757.57975</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4312.48726</v>
+        <v>4609.07092</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3741.37908</v>
+        <v>5096.5276</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4239.027349999999</v>
+        <v>5616.28152</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3329.54662</v>
+        <v>3877.43901</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5230.84292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4584.910879999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20004.431</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1925.98491</v>
+        <v>252.5862</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>8799.76974</v>
+        <v>11357.32313</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>17532.48006</v>
+        <v>17820.19583</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>21252.67336</v>
+        <v>24752.84956</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>6815.866359999999</v>
+        <v>-8759.90842</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>19499.86681</v>
+        <v>10375.6869</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>27829.42017</v>
+        <v>18376.66428</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>15844.7738</v>
+        <v>16388.8676</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>8010.50247</v>
+        <v>15263.01017</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-18646.11988</v>
+        <v>-36789.77508</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-7170.29697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-13488.44921</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>45935.261</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>